--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\UIAutoTest\input\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8705C67B-1925-4CDC-A0D7-238D912EF6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="配置信息" sheetId="1" r:id="rId1"/>
@@ -22,50 +16,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>key</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://adssx-test-gzdevops3.tsintergy.com/usercenter/#/login</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>zhanzw</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>passwd123@</t>
+  </si>
+  <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>蒙西运维</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>蒙西交易辅助决策</t>
+  </si>
+  <si>
     <t>登录页面</t>
   </si>
   <si>
-    <t>https://adssx-test-gzdevops3.tsintergy.com/usercenter/#/login</t>
-  </si>
-  <si>
     <t>账号</t>
   </si>
   <si>
-    <t>zhanzw</t>
-  </si>
-  <si>
     <t>密码</t>
   </si>
   <si>
-    <t>passwd123@</t>
-  </si>
-  <si>
     <t>企业</t>
   </si>
   <si>
-    <t>蒙西运维</t>
-  </si>
-  <si>
     <t>应用</t>
-  </si>
-  <si>
-    <t>蒙西交易辅助决策</t>
-  </si>
-  <si>
-    <t>!213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,21 +88,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,25 +434,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -399,285 +1022,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="62.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:N24"/>
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,47 +1113,47 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="9:14">
       <c r="I9">
         <v>1</v>
       </c>
@@ -745,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:14">
       <c r="I10">
         <v>2</v>
       </c>
@@ -765,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:14">
       <c r="I11">
         <v>3</v>
       </c>
@@ -785,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:14">
       <c r="I12">
         <v>4</v>
       </c>
@@ -805,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:14">
       <c r="I13">
         <v>5</v>
       </c>
@@ -825,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:14">
       <c r="I14">
         <v>6</v>
       </c>
@@ -845,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:14">
       <c r="I15">
         <v>7</v>
       </c>
@@ -865,7 +1293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:14">
       <c r="I16">
         <v>8</v>
       </c>
@@ -885,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:14">
       <c r="I17">
         <v>9</v>
       </c>
@@ -905,7 +1333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:14">
       <c r="I18">
         <v>10</v>
       </c>
@@ -925,7 +1353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:14">
       <c r="I19">
         <v>11</v>
       </c>
@@ -945,7 +1373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:14">
       <c r="I20">
         <v>12</v>
       </c>
@@ -965,7 +1393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:14">
       <c r="I21">
         <v>13</v>
       </c>
@@ -985,7 +1413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:14">
       <c r="I22">
         <v>14</v>
       </c>
@@ -1005,7 +1433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:14">
       <c r="I23">
         <v>15</v>
       </c>
@@ -1025,7 +1453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:14">
       <c r="I24">
         <v>16</v>
       </c>
@@ -1046,28 +1474,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="配置信息" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>key</t>
   </si>
@@ -30,16 +30,34 @@
     <t>https://adssx-test-gzdevops3.tsintergy.com/usercenter/#/login</t>
   </si>
   <si>
+    <t>usernameXpath</t>
+  </si>
+  <si>
+    <t>//*[@id="username"]</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
     <t>zhanzw</t>
   </si>
   <si>
+    <t>passwordXpath</t>
+  </si>
+  <si>
+    <t>//*[@id="password"]</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
     <t>passwd123@</t>
+  </si>
+  <si>
+    <t>loginXpath</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/main/div/div[2]/div/form/div/div[3]/div/div/div/button</t>
   </si>
   <si>
     <t>enterprise</t>
@@ -1028,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="62.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1086,6 +1104,30 @@
       </c>
       <c r="B6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1157,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1123,34 +1165,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="9:14">

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="login1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>key</t>
   </si>
@@ -72,19 +71,7 @@
     <t>蒙西交易辅助决策</t>
   </si>
   <si>
-    <t>登录页面</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>企业</t>
-  </si>
-  <si>
-    <t>应用</t>
+    <t>蒙西交易辅助决策系统</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1035,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1139,25 +1126,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1231</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1165,7 +1155,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1173,7 +1163,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1181,7 +1171,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1189,352 +1179,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="9:14">
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="9:14">
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="9:14">
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
-      </c>
-      <c r="N11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="9:14">
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>7</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="9:14">
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="9:14">
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="9:14">
-      <c r="I15">
-        <v>7</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>11</v>
-      </c>
-      <c r="N15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="9:14">
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
-      <c r="N16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="9:14">
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>11</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="M17">
-        <v>13</v>
-      </c>
-      <c r="N17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="9:14">
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>11</v>
-      </c>
-      <c r="K18">
-        <v>12</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="9:14">
-      <c r="I19">
-        <v>11</v>
-      </c>
-      <c r="J19">
-        <v>12</v>
-      </c>
-      <c r="K19">
-        <v>13</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="9:14">
-      <c r="I20">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>13</v>
-      </c>
-      <c r="K20">
-        <v>14</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="9:14">
-      <c r="I21">
-        <v>13</v>
-      </c>
-      <c r="J21">
-        <v>14</v>
-      </c>
-      <c r="K21">
-        <v>15</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="9:14">
-      <c r="I22">
-        <v>14</v>
-      </c>
-      <c r="J22">
-        <v>15</v>
-      </c>
-      <c r="K22">
-        <v>16</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="9:14">
-      <c r="I23">
-        <v>15</v>
-      </c>
-      <c r="J23">
-        <v>16</v>
-      </c>
-      <c r="K23">
-        <v>17</v>
-      </c>
-      <c r="L23">
-        <v>18</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="9:14">
-      <c r="I24">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <v>18</v>
-      </c>
-      <c r="L24">
-        <v>19</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login1" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="3" r:id="rId2"/>
+    <sheet name="公有数据管理" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>key</t>
   </si>
@@ -72,6 +73,72 @@
   </si>
   <si>
     <t>蒙西交易辅助决策系统</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>isElements</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>fileNames</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>公有数据管理</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/aside/div/ul/li[1]/div/span/span/span</t>
+  </si>
+  <si>
+    <t>全网统一出清价格</t>
+  </si>
+  <si>
+    <t>//*[@id="rc-menu-uuid-66629-1-/PublicDataManage-popup"]/li[1]/span/span/span</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>//*[@id="runDates"]</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/section/section/main/div/div/div/div[1]/div/div/div/div/div/form/div[1]/div/div[2]/div/div/div/div[3]/input</t>
+  </si>
+  <si>
+    <t>表格日期选择</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/section/section/main/div/div/div/div[2]/div/div/div/div/div[2]/div[1]/div/div[2]/div/div/input</t>
+  </si>
+  <si>
+    <t>表格</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/section/section/main/div/div/div/div[2]/div/div/div/div/div[2]/div[2]/div/div/div/div/div[2]/table/tbody/tr</t>
   </si>
 </sst>
 </file>
@@ -84,13 +151,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -543,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,34 +628,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,99 +664,106 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1128,7 +1205,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1189,4 +1266,151 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="86.1111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:5">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:5">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>key</t>
   </si>
@@ -75,7 +75,7 @@
     <t>蒙西交易辅助决策系统</t>
   </si>
   <si>
-    <t>说明</t>
+    <t>instructions</t>
   </si>
   <si>
     <t>isElements</t>
@@ -90,7 +90,13 @@
     <t>fileNames</t>
   </si>
   <si>
+    <t>sheetName</t>
+  </si>
+  <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
   <si>
     <t>公有数据管理</t>
@@ -833,7 +839,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1271,20 +1277,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
     <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="86.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1309,104 +1315,110 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:5">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>key</t>
   </si>
@@ -72,6 +72,18 @@
     <t>蒙西交易辅助决策</t>
   </si>
   <si>
+    <t>公有数据管理</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/aside/div/ul/li[1]/div/span/span/span</t>
+  </si>
+  <si>
     <t>蒙西交易辅助决策系统</t>
   </si>
   <si>
@@ -99,22 +111,10 @@
     <t>note</t>
   </si>
   <si>
-    <t>公有数据管理</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//*[@id="root"]/section/aside/div/ul/li[1]/div/span/span/span</t>
-  </si>
-  <si>
     <t>全网统一出清价格</t>
   </si>
   <si>
-    <t>//*[@id="rc-menu-uuid-66629-1-/PublicDataManage-popup"]/li[1]/span/span/span</t>
+    <t>/html/body/div[1]/section/aside/div/ul/li[1]/ul/li[1]/span/span/span</t>
   </si>
   <si>
     <t>开始日期</t>
@@ -126,16 +126,25 @@
     <t>//*[@id="runDates"]</t>
   </si>
   <si>
+    <t>2022-02-03</t>
+  </si>
+  <si>
     <t>结束日期</t>
   </si>
   <si>
     <t>//*[@id="root"]/section/section/section/main/div/div/div/div[1]/div/div/div/div/div/form/div[1]/div/div[2]/div/div/div/div[3]/input</t>
   </si>
   <si>
+    <t>2022-02-05</t>
+  </si>
+  <si>
     <t>表格日期选择</t>
   </si>
   <si>
     <t>//*[@id="root"]/section/section/section/main/div/div/div/div[2]/div/div/div/div/div[2]/div[1]/div/div[2]/div/div/input</t>
+  </si>
+  <si>
+    <t>2022-02-04</t>
   </si>
   <si>
     <t>表格</t>
@@ -770,6 +779,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1116,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="62.7777777777778" customWidth="1"/>
@@ -1198,6 +1208,23 @@
       </c>
       <c r="B9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="115.2" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1277,31 +1304,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
     <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="86.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1310,55 +1338,58 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -1367,15 +1398,18 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1384,41 +1418,30 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:5">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>key</t>
   </si>
@@ -99,7 +99,7 @@
     <t>by</t>
   </si>
   <si>
-    <t>fileNames</t>
+    <t>fileName</t>
   </si>
   <si>
     <t>sheetName</t>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>//*[@id="root"]/section/section/section/main/div/div/div/div[2]/div/div/div/div/div[2]/div[1]/div/div[2]/div/div/input</t>
-  </si>
-  <si>
-    <t>2022-02-04</t>
   </si>
   <si>
     <t>表格</t>
@@ -773,13 +770,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1307,7 +1306,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1383,7 +1382,7 @@
       <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1403,7 +1402,7 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1423,25 +1422,31 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:8">
+      <c r="A6" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:5">
-      <c r="A6" t="s">
-        <v>43</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>key</t>
   </si>
@@ -120,7 +120,7 @@
     <t>开始日期</t>
   </si>
   <si>
-    <t>input</t>
+    <t>date</t>
   </si>
   <si>
     <t>//*[@id="runDates"]</t>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>//*[@id="root"]/section/section/section/main/div/div/div/div[2]/div/div/div/div/div[2]/div[2]/div/div/div/div/div[2]/table/tbody/tr</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/section/section/main/div/div/div/div[1]/div/div/div/div/div/div/div/div/div[1]</t>
   </si>
 </sst>
 </file>
@@ -1303,13 +1309,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
     <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
@@ -1449,6 +1455,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" ht="28.8" spans="1:5">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
   <si>
     <t>key</t>
   </si>
@@ -157,6 +157,57 @@
   </si>
   <si>
     <t>//*[@id="root"]/section/section/section/main/div/div/div/div[1]/div/div/div/div/div/div/div/div/div[1]</t>
+  </si>
+  <si>
+    <t>竞价空间</t>
+  </si>
+  <si>
+    <t>/html/body/div/section/aside/div/ul/li[1]/ul/li[2]/span/span[1]</t>
+  </si>
+  <si>
+    <t>统调负荷</t>
+  </si>
+  <si>
+    <t>/html/body/div/section/aside/div/ul/li[1]/ul/li[3]/span/span/span</t>
+  </si>
+  <si>
+    <t>全网新能源出力</t>
+  </si>
+  <si>
+    <t>/html/body/div/section/aside/div/ul/li[1]/ul/li[4]/span/span/span</t>
+  </si>
+  <si>
+    <t>全网新能源</t>
+  </si>
+  <si>
+    <t>风电</t>
+  </si>
+  <si>
+    <t>//*[@id="energyType"]/label[2]/span[2]</t>
+  </si>
+  <si>
+    <t>全网风电</t>
+  </si>
+  <si>
+    <t>光伏</t>
+  </si>
+  <si>
+    <t>//*[@id="energyType"]/label[3]/span[2]</t>
+  </si>
+  <si>
+    <t>全网光伏</t>
+  </si>
+  <si>
+    <t>东送计划</t>
+  </si>
+  <si>
+    <t>/html/body/div/section/aside/div/ul/li[1]/ul/li[5]/span/span/span</t>
+  </si>
+  <si>
+    <t>非市场出力计划</t>
+  </si>
+  <si>
+    <t>/html/body/div/section/aside/div/ul/li[1]/ul/li[6]/span/span/span</t>
   </si>
 </sst>
 </file>
@@ -854,7 +905,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1309,13 +1360,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
     <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
@@ -1472,6 +1523,706 @@
         <v>46</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:6">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:6">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:8">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:6">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:6">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:8">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:6">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:6">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:8">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:6">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:6">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:6">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" spans="1:6">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="28.8" spans="1:8">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:6">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:8">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:6">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" ht="28.8" spans="1:6">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" spans="1:8">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/input/excel/配置信息.xlsx
+++ b/input/excel/配置信息.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="28128" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login1" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="3" r:id="rId2"/>
     <sheet name="公有数据管理" sheetId="4" r:id="rId3"/>
+    <sheet name="私有数据管理" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="74">
   <si>
     <t>key</t>
   </si>
@@ -208,6 +209,36 @@
   </si>
   <si>
     <t>/html/body/div/section/aside/div/ul/li[1]/ul/li[6]/span/span/span</t>
+  </si>
+  <si>
+    <t>私有数据管理</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/aside/div/ul/li[2]/div/span/span/span</t>
+  </si>
+  <si>
+    <t>私有数据查看</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/section/aside/div/ul/li[2]/ul/li[1]/span/span/span</t>
+  </si>
+  <si>
+    <t>业态选择</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/section/section/section/main/div/div/div/div[1]/div/div/div/div/div/div[1]/form/div[2]/div/div[2]/div/div/div/div/span[2]</t>
+  </si>
+  <si>
+    <t>选择业态</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]</t>
+  </si>
+  <si>
+    <t>火电</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C48" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2227,4 +2258,167 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="4" width="15.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="86.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:5">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>